--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H2">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I2">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J2">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.189874275034824</v>
+        <v>0.194334</v>
       </c>
       <c r="N2">
-        <v>0.189874275034824</v>
+        <v>0.388668</v>
       </c>
       <c r="O2">
-        <v>0.01915716198841131</v>
+        <v>0.01824698727389678</v>
       </c>
       <c r="P2">
-        <v>0.01915716198841131</v>
+        <v>0.01356415537893752</v>
       </c>
       <c r="Q2">
-        <v>1.631940611175049</v>
+        <v>1.675302498492</v>
       </c>
       <c r="R2">
-        <v>1.631940611175049</v>
+        <v>6.701209993968</v>
       </c>
       <c r="S2">
-        <v>0.007351706063217048</v>
+        <v>0.006823108066423821</v>
       </c>
       <c r="T2">
-        <v>0.007351706063217048</v>
+        <v>0.004012913597946128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H3">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I3">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J3">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.44063609776599</v>
+        <v>6.987880666666666</v>
       </c>
       <c r="N3">
-        <v>6.44063609776599</v>
+        <v>20.963642</v>
       </c>
       <c r="O3">
-        <v>0.6498210935140267</v>
+        <v>0.6561269237301552</v>
       </c>
       <c r="P3">
-        <v>0.6498210935140267</v>
+        <v>0.7316118059537201</v>
       </c>
       <c r="Q3">
-        <v>55.35629093418045</v>
+        <v>60.24068840259866</v>
       </c>
       <c r="R3">
-        <v>55.35629093418045</v>
+        <v>361.444130415592</v>
       </c>
       <c r="S3">
-        <v>0.2493737682065494</v>
+        <v>0.2453459762261899</v>
       </c>
       <c r="T3">
-        <v>0.2493737682065494</v>
+        <v>0.2164450997876712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H4">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I4">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J4">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.258594524586832</v>
+        <v>0.3657773333333333</v>
       </c>
       <c r="N4">
-        <v>0.258594524586832</v>
+        <v>1.097332</v>
       </c>
       <c r="O4">
-        <v>0.0260906180993585</v>
+        <v>0.03434465583178051</v>
       </c>
       <c r="P4">
-        <v>0.0260906180993585</v>
+        <v>0.03829587655860597</v>
       </c>
       <c r="Q4">
-        <v>2.222580738877643</v>
+        <v>3.153270557005333</v>
       </c>
       <c r="R4">
-        <v>2.222580738877643</v>
+        <v>18.919623342032</v>
       </c>
       <c r="S4">
-        <v>0.01001247237926817</v>
+        <v>0.01284251995832773</v>
       </c>
       <c r="T4">
-        <v>0.01001247237926817</v>
+        <v>0.01132971714744054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H5">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I5">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J5">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.02229404310699</v>
+        <v>3.1022045</v>
       </c>
       <c r="N5">
-        <v>3.02229404310699</v>
+        <v>6.204409</v>
       </c>
       <c r="O5">
-        <v>0.3049311263982035</v>
+        <v>0.2912814331641674</v>
       </c>
       <c r="P5">
-        <v>0.3049311263982035</v>
+        <v>0.2165281621087364</v>
       </c>
       <c r="Q5">
-        <v>25.97615915559987</v>
+        <v>26.743292216921</v>
       </c>
       <c r="R5">
-        <v>25.97615915559987</v>
+        <v>106.973168867684</v>
       </c>
       <c r="S5">
-        <v>0.1170196301603223</v>
+        <v>0.1089190596995187</v>
       </c>
       <c r="T5">
-        <v>0.1170196301603223</v>
+        <v>0.06405918995986122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.84597276610613</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H6">
-        <v>4.84597276610613</v>
+        <v>15.23399</v>
       </c>
       <c r="I6">
-        <v>0.2163713281444803</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J6">
-        <v>0.2163713281444803</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.189874275034824</v>
+        <v>0.194334</v>
       </c>
       <c r="N6">
-        <v>0.189874275034824</v>
+        <v>0.388668</v>
       </c>
       <c r="O6">
-        <v>0.01915716198841131</v>
+        <v>0.01824698727389678</v>
       </c>
       <c r="P6">
-        <v>0.01915716198841131</v>
+        <v>0.01356415537893752</v>
       </c>
       <c r="Q6">
-        <v>0.9201255658029023</v>
+        <v>0.98682740422</v>
       </c>
       <c r="R6">
-        <v>0.9201255658029023</v>
+        <v>5.920964425319999</v>
       </c>
       <c r="S6">
-        <v>0.00414506058291151</v>
+        <v>0.004019112982856759</v>
       </c>
       <c r="T6">
-        <v>0.00414506058291151</v>
+        <v>0.003545675881924224</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.84597276610613</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H7">
-        <v>4.84597276610613</v>
+        <v>15.23399</v>
       </c>
       <c r="I7">
-        <v>0.2163713281444803</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J7">
-        <v>0.2163713281444803</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.44063609776599</v>
+        <v>6.987880666666666</v>
       </c>
       <c r="N7">
-        <v>6.44063609776599</v>
+        <v>20.963642</v>
       </c>
       <c r="O7">
-        <v>0.6498210935140267</v>
+        <v>0.6561269237301552</v>
       </c>
       <c r="P7">
-        <v>0.6498210935140267</v>
+        <v>0.7316118059537201</v>
       </c>
       <c r="Q7">
-        <v>31.21114712617405</v>
+        <v>35.48443473239777</v>
       </c>
       <c r="R7">
-        <v>31.21114712617405</v>
+        <v>319.35991259158</v>
       </c>
       <c r="S7">
-        <v>0.1406026530599285</v>
+        <v>0.1445196512707696</v>
       </c>
       <c r="T7">
-        <v>0.1406026530599285</v>
+        <v>0.1912436316771478</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.84597276610613</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H8">
-        <v>4.84597276610613</v>
+        <v>15.23399</v>
       </c>
       <c r="I8">
-        <v>0.2163713281444803</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J8">
-        <v>0.2163713281444803</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.258594524586832</v>
+        <v>0.3657773333333333</v>
       </c>
       <c r="N8">
-        <v>0.258594524586832</v>
+        <v>1.097332</v>
       </c>
       <c r="O8">
-        <v>0.0260906180993585</v>
+        <v>0.03434465583178051</v>
       </c>
       <c r="P8">
-        <v>0.0260906180993585</v>
+        <v>0.03829587655860597</v>
       </c>
       <c r="Q8">
-        <v>1.25314202361195</v>
+        <v>1.857416079408889</v>
       </c>
       <c r="R8">
-        <v>1.25314202361195</v>
+        <v>16.71674471468</v>
       </c>
       <c r="S8">
-        <v>0.005645261690268615</v>
+        <v>0.007564813307165622</v>
       </c>
       <c r="T8">
-        <v>0.005645261690268615</v>
+        <v>0.0100105581289524</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.84597276610613</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H9">
-        <v>4.84597276610613</v>
+        <v>15.23399</v>
       </c>
       <c r="I9">
-        <v>0.2163713281444803</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J9">
-        <v>0.2163713281444803</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.02229404310699</v>
+        <v>3.1022045</v>
       </c>
       <c r="N9">
-        <v>3.02229404310699</v>
+        <v>6.204409</v>
       </c>
       <c r="O9">
-        <v>0.3049311263982035</v>
+        <v>0.2912814331641674</v>
       </c>
       <c r="P9">
-        <v>0.3049311263982035</v>
+        <v>0.2165281621087364</v>
       </c>
       <c r="Q9">
-        <v>14.64595462406126</v>
+        <v>15.75298411031833</v>
       </c>
       <c r="R9">
-        <v>14.64595462406126</v>
+        <v>94.51790466190999</v>
       </c>
       <c r="S9">
-        <v>0.06597835281137168</v>
+        <v>0.0641581523635939</v>
       </c>
       <c r="T9">
-        <v>0.06597835281137168</v>
+        <v>0.05660055202098858</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.413084587598422</v>
+        <v>0.264576</v>
       </c>
       <c r="H10">
-        <v>0.413084587598422</v>
+        <v>0.793728</v>
       </c>
       <c r="I10">
-        <v>0.01844411125869873</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J10">
-        <v>0.01844411125869873</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.189874275034824</v>
+        <v>0.194334</v>
       </c>
       <c r="N10">
-        <v>0.189874275034824</v>
+        <v>0.388668</v>
       </c>
       <c r="O10">
-        <v>0.01915716198841131</v>
+        <v>0.01824698727389678</v>
       </c>
       <c r="P10">
-        <v>0.01915716198841131</v>
+        <v>0.01356415537893752</v>
       </c>
       <c r="Q10">
-        <v>0.07843413659830963</v>
+        <v>0.051416112384</v>
       </c>
       <c r="R10">
-        <v>0.07843413659830963</v>
+        <v>0.308496674304</v>
       </c>
       <c r="S10">
-        <v>0.0003533368271151724</v>
+        <v>0.0002094055798682373</v>
       </c>
       <c r="T10">
-        <v>0.0003533368271151724</v>
+        <v>0.0001847383532750087</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.413084587598422</v>
+        <v>0.264576</v>
       </c>
       <c r="H11">
-        <v>0.413084587598422</v>
+        <v>0.793728</v>
       </c>
       <c r="I11">
-        <v>0.01844411125869873</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J11">
-        <v>0.01844411125869873</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.44063609776599</v>
+        <v>6.987880666666666</v>
       </c>
       <c r="N11">
-        <v>6.44063609776599</v>
+        <v>20.963642</v>
       </c>
       <c r="O11">
-        <v>0.6498210935140267</v>
+        <v>0.6561269237301552</v>
       </c>
       <c r="P11">
-        <v>0.6498210935140267</v>
+        <v>0.7316118059537201</v>
       </c>
       <c r="Q11">
-        <v>2.660527506317174</v>
+        <v>1.848825515264</v>
       </c>
       <c r="R11">
-        <v>2.660527506317174</v>
+        <v>16.639429637376</v>
       </c>
       <c r="S11">
-        <v>0.01198537254702198</v>
+        <v>0.007529825985434242</v>
       </c>
       <c r="T11">
-        <v>0.01198537254702198</v>
+        <v>0.009964259217961888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.413084587598422</v>
+        <v>0.264576</v>
       </c>
       <c r="H12">
-        <v>0.413084587598422</v>
+        <v>0.793728</v>
       </c>
       <c r="I12">
-        <v>0.01844411125869873</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J12">
-        <v>0.01844411125869873</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.258594524586832</v>
+        <v>0.3657773333333333</v>
       </c>
       <c r="N12">
-        <v>0.258594524586832</v>
+        <v>1.097332</v>
       </c>
       <c r="O12">
-        <v>0.0260906180993585</v>
+        <v>0.03434465583178051</v>
       </c>
       <c r="P12">
-        <v>0.0260906180993585</v>
+        <v>0.03829587655860597</v>
       </c>
       <c r="Q12">
-        <v>0.1068214125441615</v>
+        <v>0.096775903744</v>
       </c>
       <c r="R12">
-        <v>0.1068214125441615</v>
+        <v>0.870983133696</v>
       </c>
       <c r="S12">
-        <v>0.0004812182630327869</v>
+        <v>0.0003941452066510451</v>
       </c>
       <c r="T12">
-        <v>0.0004812182630327869</v>
+        <v>0.0005215744714665779</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.413084587598422</v>
+        <v>0.264576</v>
       </c>
       <c r="H13">
-        <v>0.413084587598422</v>
+        <v>0.793728</v>
       </c>
       <c r="I13">
-        <v>0.01844411125869873</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J13">
-        <v>0.01844411125869873</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.02229404310699</v>
+        <v>3.1022045</v>
       </c>
       <c r="N13">
-        <v>3.02229404310699</v>
+        <v>6.204409</v>
       </c>
       <c r="O13">
-        <v>0.3049311263982035</v>
+        <v>0.2912814331641674</v>
       </c>
       <c r="P13">
-        <v>0.3049311263982035</v>
+        <v>0.2165281621087364</v>
       </c>
       <c r="Q13">
-        <v>1.248463088398018</v>
+        <v>0.8207688577919999</v>
       </c>
       <c r="R13">
-        <v>1.248463088398018</v>
+        <v>4.924613146752</v>
       </c>
       <c r="S13">
-        <v>0.00562418362152879</v>
+        <v>0.003342796073730563</v>
       </c>
       <c r="T13">
-        <v>0.00562418362152879</v>
+        <v>0.0029490266801091</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.32575140884735</v>
+        <v>0.413146</v>
       </c>
       <c r="H14">
-        <v>6.32575140884735</v>
+        <v>1.239438</v>
       </c>
       <c r="I14">
-        <v>0.282443030513338</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J14">
-        <v>0.282443030513338</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.189874275034824</v>
+        <v>0.194334</v>
       </c>
       <c r="N14">
-        <v>0.189874275034824</v>
+        <v>0.388668</v>
       </c>
       <c r="O14">
-        <v>0.01915716198841131</v>
+        <v>0.01824698727389678</v>
       </c>
       <c r="P14">
-        <v>0.01915716198841131</v>
+        <v>0.01356415537893752</v>
       </c>
       <c r="Q14">
-        <v>1.201097462805407</v>
+        <v>0.080288314764</v>
       </c>
       <c r="R14">
-        <v>1.201097462805407</v>
+        <v>0.481729888584</v>
       </c>
       <c r="S14">
-        <v>0.005410806888041816</v>
+        <v>0.0003269951836154556</v>
       </c>
       <c r="T14">
-        <v>0.005410806888041816</v>
+        <v>0.0002884763232574261</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.32575140884735</v>
+        <v>0.413146</v>
       </c>
       <c r="H15">
-        <v>6.32575140884735</v>
+        <v>1.239438</v>
       </c>
       <c r="I15">
-        <v>0.282443030513338</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J15">
-        <v>0.282443030513338</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.44063609776599</v>
+        <v>6.987880666666666</v>
       </c>
       <c r="N15">
-        <v>6.44063609776599</v>
+        <v>20.963642</v>
       </c>
       <c r="O15">
-        <v>0.6498210935140267</v>
+        <v>0.6561269237301552</v>
       </c>
       <c r="P15">
-        <v>0.6498210935140267</v>
+        <v>0.7316118059537201</v>
       </c>
       <c r="Q15">
-        <v>40.74186286931631</v>
+        <v>2.887014945910666</v>
       </c>
       <c r="R15">
-        <v>40.74186286931631</v>
+        <v>25.983134513196</v>
       </c>
       <c r="S15">
-        <v>0.1835374389435929</v>
+        <v>0.01175812426893677</v>
       </c>
       <c r="T15">
-        <v>0.1835374389435929</v>
+        <v>0.01555958907408111</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.32575140884735</v>
+        <v>0.413146</v>
       </c>
       <c r="H16">
-        <v>6.32575140884735</v>
+        <v>1.239438</v>
       </c>
       <c r="I16">
-        <v>0.282443030513338</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J16">
-        <v>0.282443030513338</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.258594524586832</v>
+        <v>0.3657773333333333</v>
       </c>
       <c r="N16">
-        <v>0.258594524586832</v>
+        <v>1.097332</v>
       </c>
       <c r="O16">
-        <v>0.0260906180993585</v>
+        <v>0.03434465583178051</v>
       </c>
       <c r="P16">
-        <v>0.0260906180993585</v>
+        <v>0.03829587655860597</v>
       </c>
       <c r="Q16">
-        <v>1.635804678225363</v>
+        <v>0.1511194421573333</v>
       </c>
       <c r="R16">
-        <v>1.635804678225363</v>
+        <v>1.360074979416</v>
       </c>
       <c r="S16">
-        <v>0.007369113243948962</v>
+        <v>0.0006154734955062163</v>
       </c>
       <c r="T16">
-        <v>0.007369113243948962</v>
+        <v>0.0008144593862955475</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1458,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.32575140884735</v>
+        <v>0.413146</v>
       </c>
       <c r="H17">
-        <v>6.32575140884735</v>
+        <v>1.239438</v>
       </c>
       <c r="I17">
-        <v>0.282443030513338</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J17">
-        <v>0.282443030513338</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.02229404310699</v>
+        <v>3.1022045</v>
       </c>
       <c r="N17">
-        <v>3.02229404310699</v>
+        <v>6.204409</v>
       </c>
       <c r="O17">
-        <v>0.3049311263982035</v>
+        <v>0.2912814331641674</v>
       </c>
       <c r="P17">
-        <v>0.3049311263982035</v>
+        <v>0.2165281621087364</v>
       </c>
       <c r="Q17">
-        <v>19.118280801135</v>
+        <v>1.281663380357</v>
       </c>
       <c r="R17">
-        <v>19.118280801135</v>
+        <v>7.689980282142001</v>
       </c>
       <c r="S17">
-        <v>0.08612567143775432</v>
+        <v>0.005219909692026061</v>
       </c>
       <c r="T17">
-        <v>0.08612567143775432</v>
+        <v>0.004605023043588059</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1520,61 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.21689974342459</v>
+        <v>6.413899000000001</v>
       </c>
       <c r="H18">
-        <v>2.21689974342459</v>
+        <v>19.241697</v>
       </c>
       <c r="I18">
-        <v>0.09898395327412597</v>
+        <v>0.2782074471560547</v>
       </c>
       <c r="J18">
-        <v>0.09898395327412597</v>
+        <v>0.3301687629590321</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.189874275034824</v>
+        <v>0.194334</v>
       </c>
       <c r="N18">
-        <v>0.189874275034824</v>
+        <v>0.388668</v>
       </c>
       <c r="O18">
-        <v>0.01915716198841131</v>
+        <v>0.01824698727389678</v>
       </c>
       <c r="P18">
-        <v>0.01915716198841131</v>
+        <v>0.01356415537893752</v>
       </c>
       <c r="Q18">
-        <v>0.4209322316076314</v>
+        <v>1.246438648266</v>
       </c>
       <c r="R18">
-        <v>0.4209322316076314</v>
+        <v>7.478631889596001</v>
       </c>
       <c r="S18">
-        <v>0.001896251627125768</v>
+        <v>0.005076447747759841</v>
       </c>
       <c r="T18">
-        <v>0.001896251627125768</v>
+        <v>0.004478460402047901</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1582,61 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.21689974342459</v>
+        <v>6.413899000000001</v>
       </c>
       <c r="H19">
-        <v>2.21689974342459</v>
+        <v>19.241697</v>
       </c>
       <c r="I19">
-        <v>0.09898395327412597</v>
+        <v>0.2782074471560547</v>
       </c>
       <c r="J19">
-        <v>0.09898395327412597</v>
+        <v>0.3301687629590321</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.44063609776599</v>
+        <v>6.987880666666666</v>
       </c>
       <c r="N19">
-        <v>6.44063609776599</v>
+        <v>20.963642</v>
       </c>
       <c r="O19">
-        <v>0.6498210935140267</v>
+        <v>0.6561269237301552</v>
       </c>
       <c r="P19">
-        <v>0.6498210935140267</v>
+        <v>0.7316118059537201</v>
       </c>
       <c r="Q19">
-        <v>14.27824451262858</v>
+        <v>44.81956082005267</v>
       </c>
       <c r="R19">
-        <v>14.27824451262858</v>
+        <v>403.3760473804741</v>
       </c>
       <c r="S19">
-        <v>0.06432186075693387</v>
+        <v>0.1825393964613219</v>
       </c>
       <c r="T19">
-        <v>0.06432186075693387</v>
+        <v>0.2415553649379632</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.21689974342459</v>
+        <v>6.413899000000001</v>
       </c>
       <c r="H20">
-        <v>2.21689974342459</v>
+        <v>19.241697</v>
       </c>
       <c r="I20">
-        <v>0.09898395327412597</v>
+        <v>0.2782074471560547</v>
       </c>
       <c r="J20">
-        <v>0.09898395327412597</v>
+        <v>0.3301687629590321</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.258594524586832</v>
+        <v>0.3657773333333333</v>
       </c>
       <c r="N20">
-        <v>0.258594524586832</v>
+        <v>1.097332</v>
       </c>
       <c r="O20">
-        <v>0.0260906180993585</v>
+        <v>0.03434465583178051</v>
       </c>
       <c r="P20">
-        <v>0.0260906180993585</v>
+        <v>0.03829587655860597</v>
       </c>
       <c r="Q20">
-        <v>0.5732781352075518</v>
+        <v>2.346058872489333</v>
       </c>
       <c r="R20">
-        <v>0.5732781352075518</v>
+        <v>21.114529852404</v>
       </c>
       <c r="S20">
-        <v>0.002582552522839967</v>
+        <v>0.009554939022412962</v>
       </c>
       <c r="T20">
-        <v>0.002582552522839967</v>
+        <v>0.01264410218978673</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,309 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H21">
+        <v>19.241697</v>
+      </c>
+      <c r="I21">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J21">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.1022045</v>
+      </c>
+      <c r="N21">
+        <v>6.204409</v>
+      </c>
+      <c r="O21">
+        <v>0.2912814331641674</v>
+      </c>
+      <c r="P21">
+        <v>0.2165281621087364</v>
+      </c>
+      <c r="Q21">
+        <v>19.8972263403455</v>
+      </c>
+      <c r="R21">
+        <v>119.383358042073</v>
+      </c>
+      <c r="S21">
+        <v>0.08103666392455999</v>
+      </c>
+      <c r="T21">
+        <v>0.07149083542923425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.26402</v>
+      </c>
+      <c r="H22">
+        <v>4.52804</v>
+      </c>
+      <c r="I22">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J22">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.194334</v>
+      </c>
+      <c r="N22">
+        <v>0.388668</v>
+      </c>
+      <c r="O22">
+        <v>0.01824698727389678</v>
+      </c>
+      <c r="P22">
+        <v>0.01356415537893752</v>
+      </c>
+      <c r="Q22">
+        <v>0.43997606268</v>
+      </c>
+      <c r="R22">
+        <v>1.75990425072</v>
+      </c>
+      <c r="S22">
+        <v>0.001791917713372667</v>
+      </c>
+      <c r="T22">
+        <v>0.00105389082048683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.26402</v>
+      </c>
+      <c r="H23">
+        <v>4.52804</v>
+      </c>
+      <c r="I23">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J23">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.987880666666666</v>
+      </c>
+      <c r="N23">
+        <v>20.963642</v>
+      </c>
+      <c r="O23">
+        <v>0.6561269237301552</v>
+      </c>
+      <c r="P23">
+        <v>0.7316118059537201</v>
+      </c>
+      <c r="Q23">
+        <v>15.82070158694667</v>
+      </c>
+      <c r="R23">
+        <v>94.92420952168</v>
+      </c>
+      <c r="S23">
+        <v>0.06443394951750285</v>
+      </c>
+      <c r="T23">
+        <v>0.05684386125889491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.21689974342459</v>
-      </c>
-      <c r="H21">
-        <v>2.21689974342459</v>
-      </c>
-      <c r="I21">
-        <v>0.09898395327412597</v>
-      </c>
-      <c r="J21">
-        <v>0.09898395327412597</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3.02229404310699</v>
-      </c>
-      <c r="N21">
-        <v>3.02229404310699</v>
-      </c>
-      <c r="O21">
-        <v>0.3049311263982035</v>
-      </c>
-      <c r="P21">
-        <v>0.3049311263982035</v>
-      </c>
-      <c r="Q21">
-        <v>6.700122888717553</v>
-      </c>
-      <c r="R21">
-        <v>6.700122888717553</v>
-      </c>
-      <c r="S21">
-        <v>0.03018328836722637</v>
-      </c>
-      <c r="T21">
-        <v>0.03018328836722637</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.26402</v>
+      </c>
+      <c r="H24">
+        <v>4.52804</v>
+      </c>
+      <c r="I24">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J24">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3657773333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.097332</v>
+      </c>
+      <c r="O24">
+        <v>0.03434465583178051</v>
+      </c>
+      <c r="P24">
+        <v>0.03829587655860597</v>
+      </c>
+      <c r="Q24">
+        <v>0.8281271982133334</v>
+      </c>
+      <c r="R24">
+        <v>4.96876318928</v>
+      </c>
+      <c r="S24">
+        <v>0.003372764841716933</v>
+      </c>
+      <c r="T24">
+        <v>0.002975465234664171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.26402</v>
+      </c>
+      <c r="H25">
+        <v>4.52804</v>
+      </c>
+      <c r="I25">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J25">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.1022045</v>
+      </c>
+      <c r="N25">
+        <v>6.204409</v>
+      </c>
+      <c r="O25">
+        <v>0.2912814331641674</v>
+      </c>
+      <c r="P25">
+        <v>0.2165281621087364</v>
+      </c>
+      <c r="Q25">
+        <v>7.02345303209</v>
+      </c>
+      <c r="R25">
+        <v>28.09381212836</v>
+      </c>
+      <c r="S25">
+        <v>0.0286048514107382</v>
+      </c>
+      <c r="T25">
+        <v>0.01682353497495516</v>
       </c>
     </row>
   </sheetData>
